--- a/wash_P/URU.xlsx
+++ b/wash_P/URU.xlsx
@@ -34319,7 +34319,7 @@
         <v>0</v>
       </c>
       <c r="FT11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FU11" t="n">
         <v>0</v>
@@ -37417,7 +37417,7 @@
         <v>0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK12" t="n">
         <v>0</v>
@@ -40545,7 +40545,7 @@
         <v>0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK13" t="n">
         <v>0</v>
@@ -56206,7 +56206,7 @@
         <v>0</v>
       </c>
       <c r="FQ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR18" t="n">
         <v>0</v>
@@ -68598,7 +68598,7 @@
         <v>0</v>
       </c>
       <c r="EC22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED22" t="n">
         <v>0</v>
@@ -68607,7 +68607,7 @@
         <v>0</v>
       </c>
       <c r="EF22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG22" t="n">
         <v>0</v>
